--- a/data/trans_orig/CoTrAQ_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ_R2-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>15077</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8759</v>
+        <v>8503</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23762</v>
+        <v>23416</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1930875929103957</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1121693169296929</v>
+        <v>0.1088904860409205</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3043132005978433</v>
+        <v>0.2998860005970477</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -763,19 +763,19 @@
         <v>9998</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4944</v>
+        <v>4986</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17171</v>
+        <v>16398</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1205549567762118</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05960832688011243</v>
+        <v>0.06011936509398939</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2070400140513333</v>
+        <v>0.197717562495139</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -784,19 +784,19 @@
         <v>25075</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16305</v>
+        <v>16637</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34824</v>
+        <v>35749</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1557280572973009</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1012623253302108</v>
+        <v>0.1033216919540827</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2162687757058116</v>
+        <v>0.2220166518977586</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>63007</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54322</v>
+        <v>54668</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>69325</v>
+        <v>69581</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8069124070896043</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6956867994021566</v>
+        <v>0.7001139994029522</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.887830683070307</v>
+        <v>0.8911095139590794</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -834,19 +834,19 @@
         <v>72939</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>65766</v>
+        <v>66539</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>77993</v>
+        <v>77951</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8794450432237882</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7929599859486673</v>
+        <v>0.8022824375048614</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9403916731198876</v>
+        <v>0.9398806349060107</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>130</v>
@@ -855,19 +855,19 @@
         <v>135946</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>126197</v>
+        <v>125272</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>144716</v>
+        <v>144384</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8442719427026991</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7837312242941884</v>
+        <v>0.7779833481022415</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8987376746697893</v>
+        <v>0.8966783080459173</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>61109</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47307</v>
+        <v>47285</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76392</v>
+        <v>75623</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1633362352275229</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1264433230388551</v>
+        <v>0.1263863990735988</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2041838225705371</v>
+        <v>0.202128653873796</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -980,19 +980,19 @@
         <v>48633</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36888</v>
+        <v>35918</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64318</v>
+        <v>63107</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1840016182516985</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1395673267070767</v>
+        <v>0.1358958791126924</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2433490438916074</v>
+        <v>0.2387667359482472</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -1001,19 +1001,19 @@
         <v>109742</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>91036</v>
+        <v>90820</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>130084</v>
+        <v>131501</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1718914367733366</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1425916706406311</v>
+        <v>0.1422529195329306</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2037543179541391</v>
+        <v>0.2059727895330177</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>313024</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>297741</v>
+        <v>298510</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>326826</v>
+        <v>326848</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8366637647724772</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7958161774294629</v>
+        <v>0.797871346126204</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8735566769611448</v>
+        <v>0.8736136009264012</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>203</v>
@@ -1051,19 +1051,19 @@
         <v>215672</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>199987</v>
+        <v>201198</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>227417</v>
+        <v>228387</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8159983817483015</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7566509561083926</v>
+        <v>0.761233264051753</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8604326732929233</v>
+        <v>0.8641041208873081</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>507</v>
@@ -1072,19 +1072,19 @@
         <v>528696</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>508354</v>
+        <v>506937</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>547402</v>
+        <v>547618</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8281085632266634</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7962456820458609</v>
+        <v>0.794027210466983</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8574083293593689</v>
+        <v>0.8577470804670696</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>55987</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42890</v>
+        <v>42547</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71331</v>
+        <v>71841</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1365009390360581</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1045706115494104</v>
+        <v>0.1037330113837271</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1739114852087859</v>
+        <v>0.1751546281042346</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -1197,19 +1197,19 @@
         <v>46448</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34450</v>
+        <v>34750</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61113</v>
+        <v>61640</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1687039427812377</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1251262531344067</v>
+        <v>0.1262171724961296</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2219714777255093</v>
+        <v>0.2238857432605918</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -1218,19 +1218,19 @@
         <v>102434</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>84421</v>
+        <v>83939</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123842</v>
+        <v>122329</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1494351991543249</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1231568020235179</v>
+        <v>0.1224537204295232</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1806650931332429</v>
+        <v>0.1784578339172956</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>354170</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>338826</v>
+        <v>338316</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>367267</v>
+        <v>367610</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8634990609639418</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.826088514791214</v>
+        <v>0.8248453718957653</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8954293884505896</v>
+        <v>0.896266988616273</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>220</v>
@@ -1268,19 +1268,19 @@
         <v>228872</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>214207</v>
+        <v>213680</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>240870</v>
+        <v>240570</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8312960572187623</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7780285222744907</v>
+        <v>0.7761142567394081</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8748737468655934</v>
+        <v>0.8737828275038703</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>564</v>
@@ -1289,19 +1289,19 @@
         <v>583043</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>561635</v>
+        <v>563148</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>601056</v>
+        <v>601538</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8505648008456751</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.819334906866757</v>
+        <v>0.8215421660827045</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.876843197976482</v>
+        <v>0.8775462795704768</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>34536</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23671</v>
+        <v>24225</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48512</v>
+        <v>47448</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09614974753361556</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06590192448251736</v>
+        <v>0.06744380151664324</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1350597071314672</v>
+        <v>0.1320988657931803</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -1414,19 +1414,19 @@
         <v>39735</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27879</v>
+        <v>30455</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54733</v>
+        <v>54855</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1849131440321693</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1297398926294346</v>
+        <v>0.1417252436933764</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2547060214302723</v>
+        <v>0.2552738735130145</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -1435,19 +1435,19 @@
         <v>74271</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58228</v>
+        <v>58049</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>94144</v>
+        <v>93631</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1293756215950982</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1014297989605197</v>
+        <v>0.1011171190968009</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.163991774639076</v>
+        <v>0.1630990689774891</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>324651</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>310675</v>
+        <v>311739</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>335516</v>
+        <v>334962</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9038502524663844</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8649402928685326</v>
+        <v>0.8679011342068197</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9340980755174826</v>
+        <v>0.9325561984833567</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>151</v>
@@ -1485,19 +1485,19 @@
         <v>175152</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>160154</v>
+        <v>160032</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>187008</v>
+        <v>184432</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8150868559678307</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7452939785697281</v>
+        <v>0.7447261264869857</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8702601073705654</v>
+        <v>0.8582747563066238</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>438</v>
@@ -1506,19 +1506,19 @@
         <v>499804</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>479931</v>
+        <v>480444</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>515847</v>
+        <v>516026</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8706243784049018</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.836008225360924</v>
+        <v>0.836900931022511</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8985702010394803</v>
+        <v>0.898882880903199</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>16324</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10046</v>
+        <v>9909</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26124</v>
+        <v>25339</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1057863856351821</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06509862283981917</v>
+        <v>0.0642114182574397</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1692927070396561</v>
+        <v>0.1642038155946765</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1631,19 +1631,19 @@
         <v>8753</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4234</v>
+        <v>4248</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16770</v>
+        <v>15705</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1361391197307451</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0658553686072661</v>
+        <v>0.06607028441370645</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2608362524561258</v>
+        <v>0.2442708709080349</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -1652,19 +1652,19 @@
         <v>25077</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16579</v>
+        <v>17091</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36436</v>
+        <v>36272</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1147133766744365</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07583742153574075</v>
+        <v>0.07818199572502381</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1666724738240336</v>
+        <v>0.1659229779057808</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>137991</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>128191</v>
+        <v>128976</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>144269</v>
+        <v>144406</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8942136143648178</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8307072929603438</v>
+        <v>0.8357961844053232</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9349013771601806</v>
+        <v>0.9357885817425603</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -1702,19 +1702,19 @@
         <v>55542</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47525</v>
+        <v>48590</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>60061</v>
+        <v>60047</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8638608802692549</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7391637475438742</v>
+        <v>0.7557291290919652</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9341446313927338</v>
+        <v>0.9339297155862936</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>179</v>
@@ -1723,19 +1723,19 @@
         <v>193533</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>182174</v>
+        <v>182338</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>202031</v>
+        <v>201519</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8852866233255635</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8333275261759664</v>
+        <v>0.8340770220942193</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9241625784642593</v>
+        <v>0.9218180042749763</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>183033</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>156291</v>
+        <v>158111</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>208641</v>
+        <v>210355</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1330304972273066</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1135938181603708</v>
+        <v>0.1149168300121982</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.151642603299543</v>
+        <v>0.1528877348235676</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>137</v>
@@ -1848,19 +1848,19 @@
         <v>153567</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>132329</v>
+        <v>132752</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>178499</v>
+        <v>180122</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1703000622688544</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1467473428144407</v>
+        <v>0.147216606164275</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.197948588015199</v>
+        <v>0.1997483089284087</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>307</v>
@@ -1869,19 +1869,19 @@
         <v>336601</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>303242</v>
+        <v>302557</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>372747</v>
+        <v>375346</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.147786091608714</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1331397933083776</v>
+        <v>0.1328389583477025</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1636562063974429</v>
+        <v>0.1647972711498612</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>1192843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1167235</v>
+        <v>1165521</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1219585</v>
+        <v>1217765</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8669695027726934</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8483573967004571</v>
+        <v>0.8471122651764323</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8864061818396293</v>
+        <v>0.8850831699878017</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>695</v>
@@ -1919,19 +1919,19 @@
         <v>748178</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>723246</v>
+        <v>721623</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>769416</v>
+        <v>768993</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8296999377311457</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.802051411984801</v>
+        <v>0.8002516910715913</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8532526571855593</v>
+        <v>0.852783393835725</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1818</v>
@@ -1940,19 +1940,19 @@
         <v>1941020</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1904874</v>
+        <v>1902275</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1974379</v>
+        <v>1975064</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.852213908391286</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8363437936025571</v>
+        <v>0.8352027288501388</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8668602066916224</v>
+        <v>0.8671610416522975</v>
       </c>
     </row>
     <row r="21">
@@ -2285,19 +2285,19 @@
         <v>26495</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19425</v>
+        <v>18439</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36454</v>
+        <v>35927</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3349233756384326</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2455412615661943</v>
+        <v>0.2330863255398045</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4608012959397928</v>
+        <v>0.4541396050613566</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -2306,19 +2306,19 @@
         <v>26455</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18756</v>
+        <v>18650</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35923</v>
+        <v>34845</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2880125213944731</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2041906745037613</v>
+        <v>0.2030348125090963</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3910875068635296</v>
+        <v>0.3793459036725405</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -2327,19 +2327,19 @@
         <v>52951</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41770</v>
+        <v>41212</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>66156</v>
+        <v>65915</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3097193110733004</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.244320860694935</v>
+        <v>0.2410553353276098</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.386959810153875</v>
+        <v>0.3855475115699485</v>
       </c>
     </row>
     <row r="5">
@@ -2356,19 +2356,19 @@
         <v>52614</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42655</v>
+        <v>43182</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59684</v>
+        <v>60670</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6650766243615674</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5391987040602072</v>
+        <v>0.5458603949386437</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7544587384338056</v>
+        <v>0.7669136744601956</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -2377,19 +2377,19 @@
         <v>65400</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55932</v>
+        <v>57010</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73099</v>
+        <v>73205</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7119874786055268</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6089124931364704</v>
+        <v>0.6206540963274597</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7958093254962386</v>
+        <v>0.7969651874909037</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>116</v>
@@ -2398,19 +2398,19 @@
         <v>118013</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>104808</v>
+        <v>105049</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>129194</v>
+        <v>129752</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6902806889266996</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6130401898461248</v>
+        <v>0.6144524884300514</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7556791393050649</v>
+        <v>0.7589446646723902</v>
       </c>
     </row>
     <row r="6">
@@ -2502,19 +2502,19 @@
         <v>96413</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80486</v>
+        <v>80846</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114860</v>
+        <v>115783</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2801206768169113</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2338443635623779</v>
+        <v>0.2348920306494281</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3337153029057916</v>
+        <v>0.3363978522216857</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>87</v>
@@ -2523,19 +2523,19 @@
         <v>82933</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69675</v>
+        <v>68543</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97382</v>
+        <v>98637</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3029879065658674</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2545525429421698</v>
+        <v>0.2504171890258321</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3557759960452572</v>
+        <v>0.3603617623498217</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>176</v>
@@ -2544,19 +2544,19 @@
         <v>179346</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>158268</v>
+        <v>155692</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>203316</v>
+        <v>200528</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2902503368098282</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2561377781002258</v>
+        <v>0.2519686729250109</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3290424772182179</v>
+        <v>0.3245298443042739</v>
       </c>
     </row>
     <row r="8">
@@ -2573,19 +2573,19 @@
         <v>247772</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>229325</v>
+        <v>228402</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>263699</v>
+        <v>263339</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7198793231830887</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6662846970942088</v>
+        <v>0.6636021477783143</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7661556364376222</v>
+        <v>0.7651079693505719</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>196</v>
@@ -2594,19 +2594,19 @@
         <v>190783</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>176334</v>
+        <v>175079</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>204041</v>
+        <v>205173</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6970120934341326</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6442240039547429</v>
+        <v>0.6396382376501784</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7454474570578302</v>
+        <v>0.7495828109741678</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>436</v>
@@ -2615,19 +2615,19 @@
         <v>438556</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>414586</v>
+        <v>417374</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>459634</v>
+        <v>462210</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7097496631901717</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6709575227817821</v>
+        <v>0.675470155695726</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7438622218997744</v>
+        <v>0.7480313270749891</v>
       </c>
     </row>
     <row r="9">
@@ -2719,19 +2719,19 @@
         <v>96462</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77993</v>
+        <v>81043</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>114405</v>
+        <v>115662</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2098877828183884</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1697030378016605</v>
+        <v>0.1763389477288188</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2489296835621769</v>
+        <v>0.251663572226314</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>84</v>
@@ -2740,19 +2740,19 @@
         <v>81510</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67340</v>
+        <v>65977</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>97420</v>
+        <v>98516</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2567930057057388</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2121520863009699</v>
+        <v>0.2078563969747203</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3069170226983233</v>
+        <v>0.3103711715618081</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>174</v>
@@ -2761,19 +2761,19 @@
         <v>177971</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>158157</v>
+        <v>158404</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>203449</v>
+        <v>202652</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2290490848929013</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2035483955224869</v>
+        <v>0.2038655281217913</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.261839423064276</v>
+        <v>0.2608124816575965</v>
       </c>
     </row>
     <row r="11">
@@ -2790,19 +2790,19 @@
         <v>363126</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>345183</v>
+        <v>343926</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>381595</v>
+        <v>378545</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7901122171816116</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7510703164378226</v>
+        <v>0.748336427773686</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8302969621983395</v>
+        <v>0.8236610522711812</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>235</v>
@@ -2811,19 +2811,19 @@
         <v>235904</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>219994</v>
+        <v>218898</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>250074</v>
+        <v>251437</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7432069942942612</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6930829773016767</v>
+        <v>0.6896288284381917</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7878479136990301</v>
+        <v>0.7921436030252795</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>582</v>
@@ -2832,19 +2832,19 @@
         <v>599030</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>573552</v>
+        <v>574349</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>618844</v>
+        <v>618597</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7709509151070987</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.738160576935724</v>
+        <v>0.7391875183424035</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7964516044775132</v>
+        <v>0.7961344718782086</v>
       </c>
     </row>
     <row r="12">
@@ -2936,19 +2936,19 @@
         <v>84772</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68104</v>
+        <v>68450</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101853</v>
+        <v>102611</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2305294686978915</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.185203118852053</v>
+        <v>0.1861437251136022</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2769795563206447</v>
+        <v>0.2790396882536573</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -2957,19 +2957,19 @@
         <v>74545</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59259</v>
+        <v>59018</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88626</v>
+        <v>90542</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3066222114632783</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2437476199744472</v>
+        <v>0.2427544453648243</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3645400413192262</v>
+        <v>0.3724200350231708</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>143</v>
@@ -2978,19 +2978,19 @@
         <v>159318</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>136441</v>
+        <v>139290</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>180171</v>
+        <v>183854</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2608145354310352</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2233641072356345</v>
+        <v>0.2280283746691568</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2949539547599757</v>
+        <v>0.3009829757468157</v>
       </c>
     </row>
     <row r="14">
@@ -3007,19 +3007,19 @@
         <v>282956</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>265875</v>
+        <v>265117</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>299624</v>
+        <v>299278</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7694705313021084</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7230204436793551</v>
+        <v>0.7209603117463429</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8147968811479469</v>
+        <v>0.8138562748863981</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>155</v>
@@ -3028,19 +3028,19 @@
         <v>168573</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>154492</v>
+        <v>152576</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>183859</v>
+        <v>184100</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6933777885367217</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6354599586807732</v>
+        <v>0.6275799649768292</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7562523800255527</v>
+        <v>0.7572455546351756</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>411</v>
@@ -3049,19 +3049,19 @@
         <v>451528</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>430675</v>
+        <v>426992</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>474405</v>
+        <v>471556</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7391854645689648</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7050460452400241</v>
+        <v>0.6990170242531842</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7766358927643655</v>
+        <v>0.7719716253308432</v>
       </c>
     </row>
     <row r="15">
@@ -3153,19 +3153,19 @@
         <v>39452</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28371</v>
+        <v>27902</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53653</v>
+        <v>50851</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2380547766169889</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1711899561698483</v>
+        <v>0.1683633786922706</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3237447003299128</v>
+        <v>0.3068394592080589</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -3174,19 +3174,19 @@
         <v>32245</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23849</v>
+        <v>22527</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43228</v>
+        <v>42245</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3045504131295696</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2252521004313539</v>
+        <v>0.212764946514489</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4082814630953338</v>
+        <v>0.398993151428342</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>62</v>
@@ -3195,19 +3195,19 @@
         <v>71697</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>56669</v>
+        <v>57461</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>87329</v>
+        <v>88991</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2639765175229196</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2086450624111348</v>
+        <v>0.2115591081246287</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3215282882748052</v>
+        <v>0.3276475592112496</v>
       </c>
     </row>
     <row r="17">
@@ -3224,19 +3224,19 @@
         <v>126274</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>112073</v>
+        <v>114875</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>137355</v>
+        <v>137824</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7619452233830111</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6762552996700872</v>
+        <v>0.693160540791941</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8288100438301518</v>
+        <v>0.8316366213077294</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>62</v>
@@ -3245,19 +3245,19 @@
         <v>73634</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>62651</v>
+        <v>63634</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>82030</v>
+        <v>83352</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6954495868704303</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5917185369046662</v>
+        <v>0.6010068485716579</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.774747899568646</v>
+        <v>0.7872350534855105</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>174</v>
@@ -3266,19 +3266,19 @@
         <v>199908</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>184276</v>
+        <v>182614</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>214936</v>
+        <v>214144</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7360234824770804</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6784717117251947</v>
+        <v>0.6723524407887504</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7913549375888653</v>
+        <v>0.7884408918753715</v>
       </c>
     </row>
     <row r="18">
@@ -3370,19 +3370,19 @@
         <v>343595</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>310307</v>
+        <v>310766</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>378156</v>
+        <v>376439</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2425940892849737</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2190915323097553</v>
+        <v>0.2194150384677822</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2669959674422638</v>
+        <v>0.2657834390605909</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>293</v>
@@ -3391,19 +3391,19 @@
         <v>297689</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>267777</v>
+        <v>271659</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>326753</v>
+        <v>328715</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2884629814004714</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2594779409927973</v>
+        <v>0.2632397326101238</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3166267874905435</v>
+        <v>0.3185282604490743</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>606</v>
@@ -3412,19 +3412,19 @@
         <v>641283</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>595754</v>
+        <v>600635</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>684101</v>
+        <v>689459</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.261928116416238</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2433321168799105</v>
+        <v>0.2453254466744883</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2794167233181518</v>
+        <v>0.2816053054998268</v>
       </c>
     </row>
     <row r="20">
@@ -3441,19 +3441,19 @@
         <v>1072742</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1038181</v>
+        <v>1039898</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1106030</v>
+        <v>1105571</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7574059107150264</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7330040325577364</v>
+        <v>0.734216560939409</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7809084676902447</v>
+        <v>0.7805849615322178</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>715</v>
@@ -3462,19 +3462,19 @@
         <v>734293</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>705229</v>
+        <v>703267</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>764205</v>
+        <v>760323</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7115370185995286</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6833732125094566</v>
+        <v>0.6814717395509258</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7405220590072029</v>
+        <v>0.7367602673898761</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1719</v>
@@ -3483,19 +3483,19 @@
         <v>1807035</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1764217</v>
+        <v>1758859</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1852564</v>
+        <v>1847683</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7380718835837621</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7205832766818483</v>
+        <v>0.7183946945001731</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7566678831200896</v>
+        <v>0.7546745533255116</v>
       </c>
     </row>
     <row r="21">
